--- a/Table des accords.xlsx
+++ b/Table des accords.xlsx
@@ -746,7 +746,7 @@
   <dimension ref="B1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="8">
         <v>5</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="8">
         <v>5</v>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="8">
         <v>5</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="V3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W3" s="8">
         <v>5</v>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="8">
         <v>5</v>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="AF3" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG3" s="8">
         <v>5</v>
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="8">
         <v>5</v>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" s="8">
         <v>5</v>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10" s="8">
         <v>5</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W10" s="8">
         <v>5</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="AA10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB10" s="8">
         <v>5</v>
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="AF10" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG10" s="8">
         <v>5</v>

--- a/Table des accords.xlsx
+++ b/Table des accords.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$AH$16</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -745,9 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1815,7 +1816,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="130" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="127" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Table des accords.xlsx
+++ b/Table des accords.xlsx
@@ -748,7 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1457,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="10" t="s">
         <v>20</v>

--- a/Table des accords.xlsx
+++ b/Table des accords.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$AH$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$AM$16</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="30">
   <si>
     <t>C</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Major</t>
+  </si>
+  <si>
+    <t>G#m</t>
+  </si>
+  <si>
+    <t>D#</t>
   </si>
 </sst>
 </file>
@@ -456,6 +462,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>45988</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1757</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>476193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7425665" y="123092"/>
+          <a:ext cx="610503" cy="476193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -746,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG16"/>
+  <dimension ref="B1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,12 +820,16 @@
     <col min="30" max="30" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="3.109375" style="1" customWidth="1"/>
     <col min="34" max="34" width="1.77734375" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="11.5546875" style="1"/>
+    <col min="35" max="35" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="3.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="1.77734375" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:33" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:38" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:38" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:38" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -862,8 +910,20 @@
       <c r="AG3" s="8">
         <v>5</v>
       </c>
+      <c r="AI3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
@@ -947,8 +1007,20 @@
       <c r="AG4" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AI4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1030,8 +1102,20 @@
       <c r="AG5" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="AI5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>15</v>
@@ -1113,8 +1197,20 @@
       <c r="AG6" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="AI6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
@@ -1196,8 +1292,20 @@
       <c r="AG7" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AI7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -1279,8 +1387,20 @@
       <c r="AG8" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="AI8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="2:33" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:38" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E9" s="9"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -1310,8 +1430,12 @@
       <c r="AE9" s="11"/>
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
     </row>
-    <row r="10" spans="2:33" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:38" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1392,8 +1516,20 @@
       <c r="AG10" s="8">
         <v>5</v>
       </c>
+      <c r="AI10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>26</v>
       </c>
@@ -1477,8 +1613,20 @@
       <c r="AG11" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="AI11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B12" s="13"/>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -1487,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>4</v>
@@ -1560,8 +1708,20 @@
       <c r="AG12" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AI12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL12" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B13" s="13"/>
       <c r="C13" s="3" t="s">
         <v>15</v>
@@ -1643,8 +1803,20 @@
       <c r="AG13" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="AI13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -1726,8 +1898,20 @@
       <c r="AG14" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="AI14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:38" x14ac:dyDescent="0.3">
       <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
         <v>17</v>
@@ -1809,8 +1993,20 @@
       <c r="AG15" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="AI15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="16" spans="2:33" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:38" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:B8"/>
@@ -1818,7 +2014,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="127" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="110" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Table des accords.xlsx
+++ b/Table des accords.xlsx
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -940,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="12" t="s">
@@ -1641,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="8" t="s">
